--- a/frontend/src/data.xlsx
+++ b/frontend/src/data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\project-on-github\business_management\frontend\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFC02B4-7BA2-4FFE-A6B4-3717984BA471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95764C98-99F7-4A96-9487-CF682CBC7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC5FB67B-5B86-46C8-BD29-0FEF49274CE8}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CC5FB67B-5B86-46C8-BD29-0FEF49274CE8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project" sheetId="1" r:id="rId1"/>
+    <sheet name="master data example" sheetId="3" r:id="rId1"/>
+    <sheet name="Data Dictionary" sheetId="2" r:id="rId2"/>
+    <sheet name="Project" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="237">
   <si>
     <t>project</t>
   </si>
@@ -46,13 +48,712 @@
   </si>
   <si>
     <t>Sale Revenue</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>PK/FK</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>serial Primary Key</t>
+  </si>
+  <si>
+    <t>policy_code</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>policy_name</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>employee.id</t>
+  </si>
+  <si>
+    <t>created_datetime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated_by </t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated_datetime </t>
+  </si>
+  <si>
+    <t>kpi</t>
+  </si>
+  <si>
+    <t>kpi_code</t>
+  </si>
+  <si>
+    <t>kpi_name</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>year_target</t>
+  </si>
+  <si>
+    <t>md_number</t>
+  </si>
+  <si>
+    <t>kpi_number</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>&gt;=, &lt;=</t>
+  </si>
+  <si>
+    <t>calculate_type</t>
+  </si>
+  <si>
+    <t>SUM, AVG</t>
+  </si>
+  <si>
+    <t>kpi_target</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>cost_saving_type</t>
+  </si>
+  <si>
+    <t>cost_saving_type_name</t>
+  </si>
+  <si>
+    <t>grade_quality_type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>organization_structure_level</t>
+  </si>
+  <si>
+    <t>org_level_name</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>organization_structure</t>
+  </si>
+  <si>
+    <t>org_code</t>
+  </si>
+  <si>
+    <t>ต้องดักไม่ให้พิม . (จุด)</t>
+  </si>
+  <si>
+    <t>org_name</t>
+  </si>
+  <si>
+    <t>org_level</t>
+  </si>
+  <si>
+    <t>organization_structure_level.id</t>
+  </si>
+  <si>
+    <t>parent_org_id</t>
+  </si>
+  <si>
+    <t>organization_structure.id</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>profile_picture</t>
+  </si>
+  <si>
+    <t>employee_code</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>organizational_unit</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>report_to</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>is_project_leader</t>
+  </si>
+  <si>
+    <t>is_project_member</t>
+  </si>
+  <si>
+    <t>is_project_approver</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>md_policy_view</t>
+  </si>
+  <si>
+    <t>kpi_alignment_view</t>
+  </si>
+  <si>
+    <t>project_view</t>
+  </si>
+  <si>
+    <t>project_create</t>
+  </si>
+  <si>
+    <t>project_update</t>
+  </si>
+  <si>
+    <t>project_delete</t>
+  </si>
+  <si>
+    <t>report_view</t>
+  </si>
+  <si>
+    <t>report_update</t>
+  </si>
+  <si>
+    <t>report_delete</t>
+  </si>
+  <si>
+    <t>dashboard_executive_view</t>
+  </si>
+  <si>
+    <t>dashboard_manager_view</t>
+  </si>
+  <si>
+    <t>dashboard_user_view</t>
+  </si>
+  <si>
+    <t>admin_view</t>
+  </si>
+  <si>
+    <t>cost_saving_type_view</t>
+  </si>
+  <si>
+    <t>cost_saving_type_create</t>
+  </si>
+  <si>
+    <t>cost_saving_type_update</t>
+  </si>
+  <si>
+    <t>cost_saving_type_delete</t>
+  </si>
+  <si>
+    <t>policy_view</t>
+  </si>
+  <si>
+    <t>policy_create</t>
+  </si>
+  <si>
+    <t>policy_update</t>
+  </si>
+  <si>
+    <t>policy_delete</t>
+  </si>
+  <si>
+    <t>kpi_view</t>
+  </si>
+  <si>
+    <t>kpi_create</t>
+  </si>
+  <si>
+    <t>kpi_update</t>
+  </si>
+  <si>
+    <t>kpi_delete</t>
+  </si>
+  <si>
+    <t>organizational_unit_view</t>
+  </si>
+  <si>
+    <t>organizational_unit_create</t>
+  </si>
+  <si>
+    <t>organizational_unit_update</t>
+  </si>
+  <si>
+    <t>organizational_unit_delete</t>
+  </si>
+  <si>
+    <t>employee_view</t>
+  </si>
+  <si>
+    <t>employee_create</t>
+  </si>
+  <si>
+    <t>employee_update</t>
+  </si>
+  <si>
+    <t>employee_delete</t>
+  </si>
+  <si>
+    <t>permission_for</t>
+  </si>
+  <si>
+    <t>data_scope</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>data_scope_for</t>
+  </si>
+  <si>
+    <t>project.information</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>project_leader</t>
+  </si>
+  <si>
+    <t>project_org</t>
+  </si>
+  <si>
+    <t>"lv1.lv2.lv3..."</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>end_date_rev</t>
+  </si>
+  <si>
+    <t>opportunity_statement</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>"Registered","Submitted","On Going","Revision","Completed","Cancelled"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>project_kpi(list)</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>kpi_id</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>project.benefit/investment</t>
+  </si>
+  <si>
+    <t>est_investment</t>
+  </si>
+  <si>
+    <t>est_investment_rev</t>
+  </si>
+  <si>
+    <t>est_gross_earnings</t>
+  </si>
+  <si>
+    <t>payback_period_year</t>
+  </si>
+  <si>
+    <t>payback_period_month = investment / (gross_earnings / (month(end_date - start_date)/12))</t>
+  </si>
+  <si>
+    <t>return_on_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_on_investment = </t>
+  </si>
+  <si>
+    <t>project.other_benefit</t>
+  </si>
+  <si>
+    <t>benefit_id (kpi_id)</t>
+  </si>
+  <si>
+    <t>project.member(list)</t>
+  </si>
+  <si>
+    <t>ep_id</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>project.close</t>
+  </si>
+  <si>
+    <t>grade_quality</t>
+  </si>
+  <si>
+    <t>A, B, C</t>
+  </si>
+  <si>
+    <t>grade_reason</t>
+  </si>
+  <si>
+    <t>md_policy_name</t>
+  </si>
+  <si>
+    <t>Strategic Direction &amp; Sustainable Growth Policy</t>
+  </si>
+  <si>
+    <t>นโยบายทิศทางกลยุทธ์และการเติบโตอย่างยั่งยืน</t>
+  </si>
+  <si>
+    <t>Performance &amp; Result-Oriented Management Policy</t>
+  </si>
+  <si>
+    <t>นโยบายการบริหารผลการดำเนินงาน</t>
+  </si>
+  <si>
+    <t>People, Leadership &amp; Successor Development Policy</t>
+  </si>
+  <si>
+    <t>นโยบายบุคลากรและผู้นำ</t>
+  </si>
+  <si>
+    <t>Process Excellence &amp; Cost Efficiency Policy</t>
+  </si>
+  <si>
+    <t>นโยบายประสิทธิภาพกระบวนการและต้นทุน</t>
+  </si>
+  <si>
+    <t>Digital Transformation &amp; Technology Enablement Policy</t>
+  </si>
+  <si>
+    <t>นโยบายดิจิทัลและเทคโนโลยี</t>
+  </si>
+  <si>
+    <t>Governance, Risk &amp; Compliance Policy</t>
+  </si>
+  <si>
+    <t>นโยบายธรรมาภิบาลและการกำกับดูแล</t>
+  </si>
+  <si>
+    <t>Customer &amp; Stakeholder Value Policy</t>
+  </si>
+  <si>
+    <t>นโยบายคุณค่าลูกค้าและผู้มีส่วนได้ส่วนเสีย</t>
+  </si>
+  <si>
+    <t>Execution Discipline &amp; Accountability Policy</t>
+  </si>
+  <si>
+    <t>นโยบายวินัยการปฏิบัติและความรับผิดชอบ</t>
+  </si>
+  <si>
+    <t>kpi_unit</t>
+  </si>
+  <si>
+    <t>Strategic Objective Achievement Rate</t>
+  </si>
+  <si>
+    <t>สัดส่วนเป้าหมายเชิงกลยุทธ์ที่บรรลุตามแผนประจำปี</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Corporate KPI Achievement Index</t>
+  </si>
+  <si>
+    <t>คะแนนเฉลี่ยการบรรลุ KPI ระดับองค์กร</t>
+  </si>
+  <si>
+    <t>Key Position Successor Coverage</t>
+  </si>
+  <si>
+    <t>ตำแหน่งสำคัญที่มีผู้สืบทอดพร้อมใช้งาน</t>
+  </si>
+  <si>
+    <t>Cost Reduction from Process Improvement</t>
+  </si>
+  <si>
+    <t>มูลค่าการลดต้นทุนจากการปรับปรุงกระบวนการ</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Digital Adoption Rate</t>
+  </si>
+  <si>
+    <t>อัตราการใช้งานระบบดิจิทัลตามที่กำหนด</t>
+  </si>
+  <si>
+    <t>Major Compliance &amp; Risk Incident</t>
+  </si>
+  <si>
+    <t>จำนวนเหตุการณ์ความเสี่ยง/ไม่ปฏิบัติตามที่มีผลกระทบร้ายแรง</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Customer Satisfaction Index (CSI)</t>
+  </si>
+  <si>
+    <t>คะแนนความพึงพอใจลูกค้าเฉลี่ยทั้งองค์กร</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>On-Time Strategic Project Delivery</t>
+  </si>
+  <si>
+    <t>โครงการเชิงกลยุทธ์ที่ส่งมอบตรงเวลา</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Fixed Cost Saving</t>
+  </si>
+  <si>
+    <t>Variable Cost Saving</t>
+  </si>
+  <si>
+    <t>Waste Reduction</t>
+  </si>
+  <si>
+    <t>Process Optimization</t>
+  </si>
+  <si>
+    <t>Man-hour Saving</t>
+  </si>
+  <si>
+    <t>Contract Negotiation Saving</t>
+  </si>
+  <si>
+    <t>Technology Efficiency</t>
+  </si>
+  <si>
+    <t>Material Substitution</t>
+  </si>
+  <si>
+    <t>Inventory Reduction</t>
+  </si>
+  <si>
+    <t>Energy Saving</t>
+  </si>
+  <si>
+    <t>Carbon Reduction (ESG)</t>
+  </si>
+  <si>
+    <t>is_display</t>
+  </si>
+  <si>
+    <t>company group</t>
+  </si>
+  <si>
+    <t>company name</t>
+  </si>
+  <si>
+    <t>business unit</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>parent_org_number</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>Pangsagis Group</t>
+  </si>
+  <si>
+    <t>COM01</t>
+  </si>
+  <si>
+    <t>Pangsagis Com 1</t>
+  </si>
+  <si>
+    <t>COM02</t>
+  </si>
+  <si>
+    <t>Pangsagis Com 2</t>
+  </si>
+  <si>
+    <t>BU01</t>
+  </si>
+  <si>
+    <t>Pangsagis Bu 1</t>
+  </si>
+  <si>
+    <t>DIV01</t>
+  </si>
+  <si>
+    <t>Pangsagis Div 1</t>
+  </si>
+  <si>
+    <t>DEP01</t>
+  </si>
+  <si>
+    <t>Pangsagis Dep 1</t>
+  </si>
+  <si>
+    <t>SEC01</t>
+  </si>
+  <si>
+    <t>Pangsagis Sec 1</t>
+  </si>
+  <si>
+    <t>DEP02</t>
+  </si>
+  <si>
+    <t>Pangsagis Dep 2</t>
+  </si>
+  <si>
+    <t>organizational unit</t>
+  </si>
+  <si>
+    <t>approver</t>
+  </si>
+  <si>
+    <t>PSG001</t>
+  </si>
+  <si>
+    <t>Witchapart</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>ceo@mail.com</t>
+  </si>
+  <si>
+    <t>PSG002</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>div1_m@mail.com</t>
+  </si>
+  <si>
+    <t>PSG003</t>
+  </si>
+  <si>
+    <t>menu_permission</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>kpi_alignment</t>
+  </si>
+  <si>
+    <t>dasboard_executive</t>
+  </si>
+  <si>
+    <t>dashboard_manager</t>
+  </si>
+  <si>
+    <t>dashboard_user</t>
+  </si>
+  <si>
+    <t>knowledge_management</t>
+  </si>
+  <si>
+    <t>setting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +762,61 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -78,15 +824,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{52E95B7A-AB7A-4E87-BA00-EB57AC8C2466}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7E95A383-AE83-448B-B751-DA313C7783EA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,10 +1262,3352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAF5900-230E-4976-B8F5-3C9CB697BFC4}">
+  <dimension ref="B3:N73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="11"/>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="11"/>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="11"/>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="11"/>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="11"/>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="11"/>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="11"/>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="11"/>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="11"/>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="11"/>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="11"/>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="11"/>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="11"/>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="11"/>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="11"/>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="11"/>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="9"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" s="1">
+        <v>90</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="9"/>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="1">
+        <v>95</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="9"/>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="1">
+        <v>85</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="9"/>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="1">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="9"/>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="1">
+        <v>90</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="9"/>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="9"/>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="1">
+        <v>85</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="10"/>
+      <c r="C31" s="1">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="1">
+        <v>95</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="13"/>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="13"/>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="13"/>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="13"/>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="13"/>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="13"/>
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="13"/>
+      <c r="C40" s="1">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="13"/>
+      <c r="C41" s="1">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="13"/>
+      <c r="C42" s="1">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="13"/>
+      <c r="C43" s="1">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="14"/>
+      <c r="C44" s="1">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="9"/>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="9"/>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9"/>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9"/>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="9"/>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="10"/>
+      <c r="C52" s="1">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="1">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="1">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="1">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="9"/>
+      <c r="C61" s="1">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="1">
+        <v>6</v>
+      </c>
+      <c r="G61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="10"/>
+      <c r="C62" s="1">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="1">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="15">
+      <c r="B65" s="9"/>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="15">
+      <c r="B66" s="9"/>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="9"/>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="10"/>
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="11"/>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="11"/>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="11"/>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B54:B62"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G65" r:id="rId1" xr:uid="{C86DB0EC-7D1A-4BE8-8D1D-AD5F69F90AA9}"/>
+    <hyperlink ref="G66" r:id="rId2" xr:uid="{546D18E7-AE60-4153-AAAE-79C23E0889D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866AE55C-4BB2-4382-8851-661DDF4A5BC5}">
+  <dimension ref="B1:G151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="11"/>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="11"/>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="11"/>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="11"/>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="11"/>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="11"/>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="11"/>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="11"/>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="11"/>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="11"/>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="11"/>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="11"/>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="11"/>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="11"/>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="11"/>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="11"/>
+      <c r="C19" s="1">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="11"/>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="9"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="9"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="9"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="9"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="9"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="10"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="9"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="9"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="10"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="9"/>
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="9"/>
+      <c r="C35" s="4">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="10"/>
+      <c r="C36" s="5">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="18"/>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="18"/>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="18"/>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="18"/>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="18"/>
+      <c r="C42" s="1">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="18"/>
+      <c r="C43" s="1">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="16"/>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="16"/>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="16"/>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="16"/>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="16"/>
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="16"/>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="16"/>
+      <c r="C51" s="1">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="16"/>
+      <c r="C52" s="1">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="17"/>
+      <c r="C53" s="1">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="18"/>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="18"/>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="18"/>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="18"/>
+      <c r="C58" s="1">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="18"/>
+      <c r="C59" s="1">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="18"/>
+      <c r="C60" s="1">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="18"/>
+      <c r="C61" s="1">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="18"/>
+      <c r="C62" s="1">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="18"/>
+      <c r="C63" s="1">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="18"/>
+      <c r="C64" s="1">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="18"/>
+      <c r="C65" s="1">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="18"/>
+      <c r="C66" s="1">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="18"/>
+      <c r="C67" s="1">
+        <v>14</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="18"/>
+      <c r="C68" s="1">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="18"/>
+      <c r="C69" s="1">
+        <v>16</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="18"/>
+      <c r="C70" s="1">
+        <v>17</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="18"/>
+      <c r="C71" s="1">
+        <v>18</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="18"/>
+      <c r="C72" s="1">
+        <v>19</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="18"/>
+      <c r="C73" s="1">
+        <v>20</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="18"/>
+      <c r="C74" s="1">
+        <v>21</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="18"/>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="18"/>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="18"/>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="18"/>
+      <c r="C79" s="1">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="18"/>
+      <c r="C80" s="1">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="18"/>
+      <c r="C81" s="1">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="18"/>
+      <c r="C82" s="1">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="18"/>
+      <c r="C83" s="1">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="18"/>
+      <c r="C84" s="1">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="18"/>
+      <c r="C85" s="1">
+        <v>11</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="18"/>
+      <c r="C86" s="1">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="18"/>
+      <c r="C87" s="1">
+        <v>13</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="18"/>
+      <c r="C88" s="1">
+        <v>14</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="18"/>
+      <c r="C89" s="1">
+        <v>15</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="18"/>
+      <c r="C90" s="1">
+        <v>16</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="18"/>
+      <c r="C91" s="1">
+        <v>17</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="18"/>
+      <c r="C92" s="1">
+        <v>18</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="18"/>
+      <c r="C93" s="1">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="18"/>
+      <c r="C94" s="1">
+        <v>20</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="18"/>
+      <c r="C95" s="1">
+        <v>21</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="18"/>
+      <c r="C96" s="1">
+        <v>22</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="18"/>
+      <c r="C97" s="1">
+        <v>23</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="18"/>
+      <c r="C98" s="1">
+        <v>24</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="18"/>
+      <c r="C99" s="1">
+        <v>25</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="18"/>
+      <c r="C100" s="1">
+        <v>26</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="18"/>
+      <c r="C101" s="1">
+        <v>27</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="18"/>
+      <c r="C102" s="1">
+        <v>28</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="18"/>
+      <c r="C103" s="1">
+        <v>29</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="18"/>
+      <c r="C104" s="1">
+        <v>30</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="18"/>
+      <c r="C105" s="1">
+        <v>31</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="18"/>
+      <c r="C106" s="1">
+        <v>32</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="18"/>
+      <c r="C107" s="1">
+        <v>33</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="18"/>
+      <c r="C108" s="1">
+        <v>34</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="18"/>
+      <c r="C109" s="1">
+        <v>35</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="20"/>
+      <c r="C112" s="1">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="20"/>
+      <c r="C113" s="1">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="21"/>
+      <c r="C114" s="1">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="1"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="B54:B74"/>
+    <mergeCell ref="B75:B109"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A4D31D-1DA8-4872-8271-D50E12A5B4F7}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>

--- a/frontend/src/data.xlsx
+++ b/frontend/src/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\project-on-github\business_management\frontend\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95764C98-99F7-4A96-9487-CF682CBC7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA396B-DC36-425D-865D-929DE3A5F86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CC5FB67B-5B86-46C8-BD29-0FEF49274CE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CC5FB67B-5B86-46C8-BD29-0FEF49274CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="master data example" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="237">
   <si>
     <t>project</t>
   </si>
@@ -882,7 +882,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -905,27 +905,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -945,6 +924,33 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1290,7 +1296,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1304,7 +1310,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="11"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1316,7 +1322,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="11"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1328,7 +1334,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="11"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>3</v>
       </c>
@@ -1340,7 +1346,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="11"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1352,7 +1358,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="11"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -1364,7 +1370,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="11"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1376,7 +1382,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="11"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -1388,7 +1394,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="11"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1400,7 +1406,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1417,7 +1423,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="11"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -1432,7 +1438,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="11"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1">
         <v>2</v>
       </c>
@@ -1447,7 +1453,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="11"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1">
         <v>3</v>
       </c>
@@ -1462,7 +1468,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1">
         <v>4</v>
       </c>
@@ -1477,7 +1483,7 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="11"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1">
         <v>5</v>
       </c>
@@ -1492,7 +1498,7 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1">
         <v>6</v>
       </c>
@@ -1507,7 +1513,7 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1">
         <v>7</v>
       </c>
@@ -1522,7 +1528,7 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="11"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="1">
         <v>8</v>
       </c>
@@ -1537,7 +1543,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1566,7 +1572,7 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="9"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1593,7 +1599,7 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="9"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="1">
         <v>2</v>
       </c>
@@ -1620,7 +1626,7 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="9"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="1">
         <v>3</v>
       </c>
@@ -1647,7 +1653,7 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="9"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="1">
         <v>4</v>
       </c>
@@ -1674,7 +1680,7 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="9"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="1">
         <v>5</v>
       </c>
@@ -1701,7 +1707,7 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="9"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="1">
         <v>6</v>
       </c>
@@ -1728,7 +1734,7 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="9"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="1">
         <v>7</v>
       </c>
@@ -1755,7 +1761,7 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="10"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="1">
         <v>8</v>
       </c>
@@ -1782,7 +1788,7 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1799,7 +1805,7 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="13"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="1">
         <v>1</v>
       </c>
@@ -1812,7 +1818,7 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="13"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="1">
         <v>2</v>
       </c>
@@ -1825,7 +1831,7 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="13"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="1">
         <v>3</v>
       </c>
@@ -1838,7 +1844,7 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="13"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="1">
         <v>4</v>
       </c>
@@ -1851,7 +1857,7 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="13"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="1">
         <v>5</v>
       </c>
@@ -1864,7 +1870,7 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="13"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="1">
         <v>6</v>
       </c>
@@ -1877,7 +1883,7 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="13"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="1">
         <v>7</v>
       </c>
@@ -1890,7 +1896,7 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="13"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="1">
         <v>8</v>
       </c>
@@ -1903,7 +1909,7 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="13"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="1">
         <v>9</v>
       </c>
@@ -1916,7 +1922,7 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="13"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="1">
         <v>10</v>
       </c>
@@ -1929,7 +1935,7 @@
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="14"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="1">
         <v>11</v>
       </c>
@@ -1942,7 +1948,7 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1959,7 +1965,7 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="9"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="1">
         <v>1</v>
       </c>
@@ -1974,7 +1980,7 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="9"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="1">
         <v>2</v>
       </c>
@@ -1989,7 +1995,7 @@
       </c>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="9"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="1">
         <v>3</v>
       </c>
@@ -2004,7 +2010,7 @@
       </c>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="9"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="1">
         <v>4</v>
       </c>
@@ -2019,7 +2025,7 @@
       </c>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51" s="9"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="1">
         <v>5</v>
       </c>
@@ -2034,7 +2040,7 @@
       </c>
     </row>
     <row r="52" spans="2:14">
-      <c r="B52" s="10"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="1">
         <v>6</v>
       </c>
@@ -2049,7 +2055,7 @@
       </c>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2069,7 +2075,7 @@
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="9"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="1">
         <v>1</v>
       </c>
@@ -2085,7 +2091,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="9"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="1">
         <v>2</v>
       </c>
@@ -2103,7 +2109,7 @@
       </c>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="9"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="1">
         <v>3</v>
       </c>
@@ -2121,7 +2127,7 @@
       </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="9"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="1">
         <v>4</v>
       </c>
@@ -2139,7 +2145,7 @@
       </c>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="9"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="1">
         <v>5</v>
       </c>
@@ -2157,7 +2163,7 @@
       </c>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="9"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="1">
         <v>6</v>
       </c>
@@ -2175,7 +2181,7 @@
       </c>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="9"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="1">
         <v>7</v>
       </c>
@@ -2193,7 +2199,7 @@
       </c>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="10"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="1">
         <v>8</v>
       </c>
@@ -2211,7 +2217,7 @@
       </c>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2252,7 +2258,7 @@
       </c>
     </row>
     <row r="65" spans="2:14" ht="15">
-      <c r="B65" s="9"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="1">
         <v>1</v>
       </c>
@@ -2277,7 +2283,7 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="2:14" ht="15">
-      <c r="B66" s="9"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="1">
         <v>2</v>
       </c>
@@ -2302,7 +2308,7 @@
       <c r="N66" s="1"/>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="9"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="1">
         <v>3</v>
       </c>
@@ -2323,7 +2329,7 @@
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="10"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="1">
         <v>4</v>
       </c>
@@ -2340,7 +2346,7 @@
       <c r="N68" s="1"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="15" t="s">
         <v>229</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2378,7 +2384,7 @@
       </c>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="11"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="1">
         <v>1</v>
       </c>
@@ -2414,7 +2420,7 @@
       </c>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="11"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="1">
         <v>2</v>
       </c>
@@ -2448,7 +2454,7 @@
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="11"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="1">
         <v>3</v>
       </c>
@@ -2496,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866AE55C-4BB2-4382-8851-661DDF4A5BC5}">
-  <dimension ref="B1:G151"/>
+  <dimension ref="B1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2533,7 +2539,7 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1">
@@ -2551,7 +2557,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="11"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1">
         <v>2</v>
       </c>
@@ -2565,7 +2571,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="11"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1">
         <v>3</v>
       </c>
@@ -2579,7 +2585,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="11"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1">
         <v>4</v>
       </c>
@@ -2593,7 +2599,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="11"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -2607,7 +2613,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="11"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1">
         <v>6</v>
       </c>
@@ -2623,7 +2629,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="11"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>7</v>
       </c>
@@ -2637,7 +2643,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="11"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>8</v>
       </c>
@@ -2653,7 +2659,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="11"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -2667,7 +2673,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1">
@@ -2685,7 +2691,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="11"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1">
         <v>2</v>
       </c>
@@ -2699,7 +2705,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="11"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1">
         <v>3</v>
       </c>
@@ -2713,11 +2719,9 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="11"/>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2727,9 +2731,9 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="11"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -2740,9 +2744,9 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="11"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -2754,9 +2758,9 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
@@ -2770,9 +2774,9 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="11"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -2784,9 +2788,9 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -2800,9 +2804,9 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
@@ -2814,10 +2818,12 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
@@ -2830,8 +2836,10 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="9"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2842,8 +2850,10 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2854,8 +2864,10 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="9"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2866,8 +2878,10 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="9"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2880,8 +2894,10 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="9"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="4">
+        <v>6</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>33</v>
       </c>
@@ -2894,8 +2910,10 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="9"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="3">
+        <v>7</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
@@ -2906,50 +2924,54 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="10"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="4">
+        <v>8</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="4">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="9"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="9"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="4"/>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
@@ -2958,56 +2980,54 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="10"/>
-      <c r="C32" s="5"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="9"/>
-      <c r="C34" s="4">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="17"/>
+      <c r="C35" s="4">
         <v>2</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="9"/>
-      <c r="C35" s="4">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>14</v>
@@ -3016,318 +3036,318 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="10"/>
-      <c r="C36" s="5">
-        <v>4</v>
+      <c r="B36" s="17"/>
+      <c r="C36" s="4">
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="5">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="18"/>
-      <c r="C38" s="1">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="11"/>
+      <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="18"/>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="18"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="11"/>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="18"/>
-      <c r="C41" s="1">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="11"/>
+      <c r="C42" s="1">
         <v>5</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="18"/>
-      <c r="C42" s="1">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="11"/>
+      <c r="C43" s="1">
         <v>6</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="18"/>
-      <c r="C43" s="1">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="11"/>
+      <c r="C44" s="1">
         <v>7</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="15" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="16"/>
-      <c r="C45" s="1">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="9"/>
+      <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="16"/>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="16"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="9"/>
+      <c r="C48" s="1">
         <v>4</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="16"/>
-      <c r="C48" s="1">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="9"/>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="16"/>
-      <c r="C49" s="1">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="9"/>
+      <c r="C50" s="1">
         <v>6</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="16"/>
-      <c r="C50" s="1">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="9"/>
+      <c r="C51" s="1">
         <v>7</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="16"/>
-      <c r="C51" s="1">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="9"/>
+      <c r="C52" s="1">
         <v>8</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="16"/>
-      <c r="C52" s="1">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="9"/>
+      <c r="C53" s="1">
         <v>9</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="17"/>
-      <c r="C53" s="1">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="10"/>
+      <c r="C54" s="1">
         <v>10</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="18" t="s">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="18"/>
-      <c r="C55" s="1">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="11"/>
+      <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="18"/>
-      <c r="C56" s="1">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
@@ -3336,12 +3356,12 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="18"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
@@ -3350,40 +3370,40 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="18"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="G58" s="6"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="18"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="18"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
@@ -3392,12 +3412,12 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="18"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
@@ -3406,12 +3426,12 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="18"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -3420,12 +3440,12 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="18"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
@@ -3434,12 +3454,12 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="18"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
@@ -3448,54 +3468,54 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="18"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="18"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="18"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="1">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="18"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>17</v>
@@ -3504,12 +3524,12 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="18"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>17</v>
@@ -3518,12 +3538,12 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="18"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>17</v>
@@ -3532,104 +3552,104 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="18"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="1">
+        <v>17</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="11"/>
+      <c r="C72" s="1">
         <v>18</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="18"/>
-      <c r="C72" s="1">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="11"/>
+      <c r="C73" s="1">
         <v>19</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="18"/>
-      <c r="C73" s="1">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="11"/>
+      <c r="C74" s="1">
         <v>20</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="18"/>
-      <c r="C74" s="1">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="11"/>
+      <c r="C75" s="1">
         <v>21</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="18" t="s">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="18"/>
-      <c r="C76" s="1">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="11"/>
+      <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="18"/>
-      <c r="C77" s="1">
-        <v>3</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>17</v>
@@ -3638,12 +3658,12 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="18"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>17</v>
@@ -3652,12 +3672,12 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="18"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>17</v>
@@ -3666,12 +3686,12 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="18"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>17</v>
@@ -3680,12 +3700,12 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="18"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>17</v>
@@ -3694,12 +3714,12 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="18"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>17</v>
@@ -3708,12 +3728,12 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="18"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>17</v>
@@ -3722,12 +3742,12 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="18"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>17</v>
@@ -3736,12 +3756,12 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="18"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>17</v>
@@ -3750,12 +3770,12 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="18"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>17</v>
@@ -3764,12 +3784,12 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="18"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>17</v>
@@ -3778,12 +3798,12 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="18"/>
+      <c r="B88" s="11"/>
       <c r="C88" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>17</v>
@@ -3792,12 +3812,12 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="18"/>
+      <c r="B89" s="11"/>
       <c r="C89" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>17</v>
@@ -3806,12 +3826,12 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="18"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>17</v>
@@ -3820,12 +3840,12 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="18"/>
+      <c r="B91" s="11"/>
       <c r="C91" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>17</v>
@@ -3834,12 +3854,12 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="18"/>
+      <c r="B92" s="11"/>
       <c r="C92" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>17</v>
@@ -3848,12 +3868,12 @@
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="18"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>17</v>
@@ -3862,12 +3882,12 @@
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="18"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>17</v>
@@ -3876,12 +3896,12 @@
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="18"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>17</v>
@@ -3890,12 +3910,12 @@
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="18"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>17</v>
@@ -3904,12 +3924,12 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="18"/>
+      <c r="B97" s="11"/>
       <c r="C97" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>17</v>
@@ -3918,12 +3938,12 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="18"/>
+      <c r="B98" s="11"/>
       <c r="C98" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>17</v>
@@ -3932,12 +3952,12 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="18"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>17</v>
@@ -3946,12 +3966,12 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="18"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>17</v>
@@ -3960,12 +3980,12 @@
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="18"/>
+      <c r="B101" s="11"/>
       <c r="C101" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>17</v>
@@ -3974,12 +3994,12 @@
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="18"/>
+      <c r="B102" s="11"/>
       <c r="C102" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>17</v>
@@ -3988,12 +4008,12 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="18"/>
+      <c r="B103" s="11"/>
       <c r="C103" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>17</v>
@@ -4002,12 +4022,12 @@
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="18"/>
+      <c r="B104" s="11"/>
       <c r="C104" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>17</v>
@@ -4016,12 +4036,12 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="18"/>
+      <c r="B105" s="11"/>
       <c r="C105" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>17</v>
@@ -4030,12 +4050,12 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="18"/>
+      <c r="B106" s="11"/>
       <c r="C106" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>17</v>
@@ -4044,12 +4064,12 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="18"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>17</v>
@@ -4058,12 +4078,12 @@
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="18"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>17</v>
@@ -4072,62 +4092,60 @@
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="18"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="1">
+        <v>34</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="11"/>
+      <c r="C110" s="1">
         <v>35</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="111" spans="2:7">
-      <c r="B111" s="19" t="s">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C111" s="1">
-        <v>1</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="2:7">
-      <c r="B112" s="20"/>
-      <c r="C112" s="1">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="13"/>
+      <c r="C113" s="1">
         <v>2</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="2:7">
-      <c r="B113" s="20"/>
-      <c r="C113" s="1">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>43</v>
@@ -4138,57 +4156,61 @@
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="21"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="1">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="14"/>
+      <c r="C115" s="1">
         <v>4</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="1" t="s">
+      <c r="G115" s="1"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="2:7">
-      <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -4197,7 +4219,7 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>11</v>
@@ -4209,33 +4231,33 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F122" s="1"/>
-      <c r="G122" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>114</v>
@@ -4247,7 +4269,7 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>114</v>
@@ -4259,10 +4281,10 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -4271,47 +4293,47 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="1"/>
-      <c r="G127" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>11</v>
@@ -4323,7 +4345,7 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>11</v>
@@ -4335,10 +4357,10 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -4347,33 +4369,33 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>36</v>
@@ -4383,9 +4405,9 @@
     </row>
     <row r="136" spans="2:7">
       <c r="B136" s="1"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4" t="s">
-        <v>128</v>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>36</v>
@@ -4395,51 +4417,51 @@
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1" t="s">
-        <v>129</v>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F137" s="1"/>
-      <c r="G137" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="G137" s="1"/>
     </row>
     <row r="138" spans="2:7">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="G139" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>11</v>
@@ -4451,7 +4473,7 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>11</v>
@@ -4463,10 +4485,10 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -4475,21 +4497,19 @@
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>11</v>
@@ -4498,10 +4518,12 @@
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>11</v>
@@ -4513,7 +4535,7 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>11</v>
@@ -4525,10 +4547,10 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -4537,10 +4559,10 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -4549,7 +4571,7 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>114</v>
@@ -4558,45 +4580,57 @@
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F150" s="1"/>
-      <c r="G150" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="G150" s="1"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="B54:B74"/>
-    <mergeCell ref="B75:B109"/>
-    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="B55:B75"/>
+    <mergeCell ref="B76:B110"/>
+    <mergeCell ref="B112:B115"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
